--- a/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
+++ b/Companies/Aerospace & Defence/Bharat Electronics Ltd/Pruned_Excel/7_Mar21_Mar22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '21</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '21</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '21</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '21</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '22</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '21</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '21</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '21</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '21</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>6,757.05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1,634.59</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3,660.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3,656.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>6,324.90</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3,656.22</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3,660.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1,634.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6,757.05</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>6757.05</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>1634.59</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4406.664</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>151.29</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>37.49</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>151.29</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>151.29</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>37.49</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>94.39</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>6,908.34</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1,634.59</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3,660.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3,693.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>6,324.90</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3,693.71</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3,660.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1,634.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6,908.34</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>6908.34</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1634.59</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>4444.42</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>3,066.62</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,032.29</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,721.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,977.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>3,394.76</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,977.67</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1,721.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,032.29</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3,066.62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>3394.76</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1032.29</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2238.52</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>723.63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>467.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>236.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>252.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>236.83</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>467.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>97.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>723.63</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>723.63</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>97.31</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>355.424</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>279.07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-174.95</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-121.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-14.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>34.29</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-14.33</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-121.98</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-174.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>279.07</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>279.07</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-174.95</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.4199999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>478.19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>495.04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>532.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>503.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>577.75</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>503.91</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>532.69</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>495.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>478.19</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>577.75</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>478.19</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>517.516</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>100.97</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>100.97</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>91.66</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>94.36799999999999</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>390.26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>122.04</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>204.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>167.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>498.29</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>167.51</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>204.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>122.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>390.26</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>498.29</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>122.04</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>276.578</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,878.91</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-29.35</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>762.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>729.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,466.84</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>729.23</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>762.34</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>-29.35</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,878.91</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1878.91</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>-29.35</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>961.5940000000001</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>57.17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>63.77</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>59.28</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>65.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>44.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>57.17</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>65.88</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>44.66</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>58.152</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>1,936.08</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>828.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>788.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,530.61</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>788.51</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>828.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>15.31</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1,936.08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1936.08</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1019.746</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>4.05</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2.08</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,930.53</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>827.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>788.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,526.56</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>788.33</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>827.74</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,930.53</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1930.53</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1017.666</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,930.53</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>827.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>788.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,526.56</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>788.33</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>827.74</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15.17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,930.53</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1930.53</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1017.666</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>578.15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>215.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>204.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>384.75</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>204.96</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>215.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>578.15</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>578.15</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>277.404</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,352.38</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>612.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>583.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,141.81</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>583.37</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>612.60</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,352.38</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1352.38</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>740.2619999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,352.38</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>612.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>583.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>1,141.81</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>583.37</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>612.60</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,352.38</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1352.38</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>740.2619999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>243.66</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>243.66</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>243.66</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>243.66</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>4.69</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>3.038</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>4.69</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>3.038</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>4.69</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>3.038</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>4.69</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>3.038</v>
       </c>
     </row>
     <row r="31"/>
